--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Dallas_Mavericks__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Dallas_Mavericks__.xlsx
@@ -588,43 +588,43 @@
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="G2" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H2" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I2" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="J2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>0.341</v>
+        <v>0.335</v>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N2" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O2" t="n">
-        <v>0.435</v>
+        <v>0.444</v>
       </c>
       <c r="P2" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="Q2" t="n">
         <v>46</v>
@@ -639,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="V2" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W2" t="n">
         <v>52</v>
@@ -651,16 +651,16 @@
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
         <v>45</v>
       </c>
       <c r="AB2" t="n">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
@@ -676,43 +676,43 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="G3" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H3" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I3" t="n">
-        <v>0.434</v>
+        <v>0.441</v>
       </c>
       <c r="J3" t="n">
         <v>44</v>
       </c>
       <c r="K3" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L3" t="n">
-        <v>0.379</v>
+        <v>0.373</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N3" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O3" t="n">
-        <v>0.53</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>0.555</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="Q3" t="n">
         <v>14</v>
@@ -727,13 +727,13 @@
         <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="V3" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="W3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X3" t="n">
         <v>36</v>
@@ -742,13 +742,13 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB3" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="G4" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H4" t="n">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L4" t="n">
-        <v>0.325</v>
+        <v>0.335</v>
       </c>
       <c r="M4" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N4" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O4" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="P4" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="Q4" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="V4" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="W4" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB4" t="n">
-        <v>485</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5">
@@ -852,67 +852,67 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="G5" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H5" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="I5" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="J5" t="n">
         <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5" t="n">
-        <v>0.338</v>
+        <v>0.329</v>
       </c>
       <c r="M5" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N5" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O5" t="n">
-        <v>0.545</v>
+        <v>0.543</v>
       </c>
       <c r="P5" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S5" t="n">
-        <v>0.792</v>
+        <v>0.767</v>
       </c>
       <c r="T5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U5" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V5" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W5" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="n">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
@@ -940,79 +940,79 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>544</v>
+      </c>
+      <c r="G6" t="n">
+        <v>51</v>
+      </c>
+      <c r="H6" t="n">
+        <v>142</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29</v>
+      </c>
+      <c r="K6" t="n">
+        <v>103</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M6" t="n">
         <v>22</v>
       </c>
-      <c r="E6" t="n">
+      <c r="N6" t="n">
+        <v>39</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="Q6" t="n">
         <v>6</v>
       </c>
-      <c r="F6" t="n">
-        <v>514</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46</v>
-      </c>
-      <c r="H6" t="n">
-        <v>135</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>97</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="M6" t="n">
-        <v>21</v>
-      </c>
-      <c r="N6" t="n">
-        <v>38</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
       <c r="R6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S6" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V6" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
         <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="n">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -1028,79 +1028,79 @@
         <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="G7" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H7" t="n">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="I7" t="n">
         <v>0.452</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="n">
-        <v>0.295</v>
+        <v>0.298</v>
       </c>
       <c r="M7" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N7" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O7" t="n">
-        <v>0.537</v>
+        <v>0.538</v>
       </c>
       <c r="P7" t="n">
-        <v>0.504</v>
+        <v>0.506</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R7" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="S7" t="n">
-        <v>0.882</v>
+        <v>0.89</v>
       </c>
       <c r="T7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U7" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V7" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
@@ -1116,22 +1116,22 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="G8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I8" t="n">
-        <v>0.593</v>
+        <v>0.579</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -1143,16 +1143,16 @@
         <v>0.368</v>
       </c>
       <c r="M8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
-        <v>0.653</v>
+        <v>0.632</v>
       </c>
       <c r="P8" t="n">
-        <v>0.632</v>
+        <v>0.616</v>
       </c>
       <c r="Q8" t="n">
         <v>28</v>
@@ -1164,16 +1164,16 @@
         <v>0.7</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U8" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V8" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="W8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1182,13 +1182,13 @@
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -1204,43 +1204,43 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I9" t="n">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
       <c r="J9" t="n">
         <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="n">
-        <v>0.377</v>
+        <v>0.371</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" t="n">
-        <v>0.591</v>
+        <v>0.583</v>
       </c>
       <c r="P9" t="n">
-        <v>0.572</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Q9" t="n">
         <v>12</v>
@@ -1252,13 +1252,13 @@
         <v>0.667</v>
       </c>
       <c r="T9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U9" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V9" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="W9" t="n">
         <v>11</v>
@@ -1267,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1732,22 +1732,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>0.533</v>
+        <v>0.556</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1759,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O15" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="P15" t="n">
-        <v>0.533</v>
+        <v>0.556</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>4</v>
@@ -1801,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1820,22 +1820,22 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>0.833</v>
+        <v>0.6</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1845,52 +1845,52 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>12</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T16" t="n">
         <v>6</v>
       </c>
-      <c r="O16" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>10</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
+        <v>16</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>2</v>
       </c>
-      <c r="U16" t="n">
-        <v>7</v>
-      </c>
-      <c r="V16" t="n">
-        <v>9</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1</v>
-      </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
         <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -2070,77 +2070,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5545</v>
+        <v>5785</v>
       </c>
       <c r="G19" t="n">
-        <v>891</v>
+        <v>928</v>
       </c>
       <c r="H19" t="n">
-        <v>2022</v>
+        <v>2099</v>
       </c>
       <c r="I19" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="J19" t="n">
+        <v>306</v>
+      </c>
+      <c r="K19" t="n">
+        <v>919</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="M19" t="n">
+        <v>622</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1180</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>341</v>
+      </c>
+      <c r="R19" t="n">
+        <v>466</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="T19" t="n">
+        <v>234</v>
+      </c>
+      <c r="U19" t="n">
+        <v>802</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1036</v>
+      </c>
+      <c r="W19" t="n">
+        <v>540</v>
+      </c>
+      <c r="X19" t="n">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z19" t="n">
         <v>294</v>
       </c>
-      <c r="K19" t="n">
-        <v>886</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="M19" t="n">
-        <v>597</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1136</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>323</v>
-      </c>
-      <c r="R19" t="n">
-        <v>443</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="T19" t="n">
-        <v>224</v>
-      </c>
-      <c r="U19" t="n">
-        <v>765</v>
-      </c>
-      <c r="V19" t="n">
-        <v>989</v>
-      </c>
-      <c r="W19" t="n">
-        <v>516</v>
-      </c>
-      <c r="X19" t="n">
-        <v>171</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>275</v>
-      </c>
       <c r="AA19" t="n">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="AB19" t="n">
-        <v>2399</v>
+        <v>2503</v>
       </c>
     </row>
   </sheetData>
